--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample02/Sample-02.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample02/Sample-02.xlsx
@@ -261,20 +261,20 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ego21j3e" xfId="1"/>
-    <cellStyle name="ego21j3e_Alternate" xfId="2"/>
-    <cellStyle name="sa5nxnja" xfId="3"/>
-    <cellStyle name="sa5nxnja_Alternate" xfId="4"/>
-    <cellStyle name="4najtcch" xfId="5"/>
-    <cellStyle name="4najtcch_Alternate" xfId="6"/>
-    <cellStyle name="xhaz2pri" xfId="7"/>
-    <cellStyle name="xhaz2pri_Alternate" xfId="8"/>
+    <cellStyle name="434bdg1h" xfId="1"/>
+    <cellStyle name="434bdg1h_Alternate" xfId="2"/>
+    <cellStyle name="d1o51l5i" xfId="3"/>
+    <cellStyle name="d1o51l5i_Alternate" xfId="4"/>
+    <cellStyle name="mmfdupwk" xfId="5"/>
+    <cellStyle name="mmfdupwk_Alternate" xfId="6"/>
+    <cellStyle name="wh5ct1vx" xfId="7"/>
+    <cellStyle name="wh5ct1vx_Alternate" xfId="8"/>
     <cellStyle name="LocalHeader-1" xfId="9"/>
     <cellStyle name="LocalHeader-1_Alternate" xfId="10"/>
-    <cellStyle name="31uckwcv" xfId="11"/>
-    <cellStyle name="31uckwcv_Alternate" xfId="12"/>
-    <cellStyle name="iykspavt" xfId="13"/>
-    <cellStyle name="iykspavt_Alternate" xfId="14"/>
+    <cellStyle name="oqoi2pgg" xfId="11"/>
+    <cellStyle name="oqoi2pgg_Alternate" xfId="12"/>
+    <cellStyle name="40g4cqiw" xfId="13"/>
+    <cellStyle name="40g4cqiw_Alternate" xfId="14"/>
     <cellStyle name="LocalHeader0" xfId="15"/>
     <cellStyle name="LocalHeader0_Alternate" xfId="16"/>
     <cellStyle name="LocalHeader1" xfId="17"/>
@@ -697,7 +697,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{ab07a7a4-653e-4588-b4ce-636b78e0525a}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{02125b5e-a034-43a8-a52e-7f0e20928fe3}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
           <x14:colorSeries rgb="FFFF5733"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample02/Sample-02.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample02/Sample-02.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Informe test</t>
   </si>
@@ -43,9 +43,15 @@
     <t>Fecha Inicio</t>
   </si>
   <si>
+    <t>01/06/2020 0:00:00</t>
+  </si>
+  <si>
     <t>Fecha Fin</t>
   </si>
   <si>
+    <t>30/06/2020 0:00:00</t>
+  </si>
+  <si>
     <t>Ocean beach ibiza</t>
   </si>
   <si>
@@ -53,16 +59,145 @@
   </si>
   <si>
     <t>Media</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>02/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>03/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>04/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>05/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>06/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>07/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>08/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>09/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>10/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>11/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>12/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>13/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>14/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>15/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>16/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>17/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>18/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>19/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>20/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>22/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>25/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>26/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>27/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>28/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>29/06/2020 0:00:00</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0;[Black]\-#,##0.0"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -165,10 +300,10 @@
     <xf numFmtId="49" fontId="3" fillId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0">
+    <xf numFmtId="49" fontId="3" fillId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1">
@@ -177,16 +312,16 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0">
+    <xf numFmtId="49" fontId="3" fillId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1">
@@ -222,10 +357,10 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="8" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="8" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
@@ -234,16 +369,16 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="14" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
@@ -261,20 +396,20 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="434bdg1h" xfId="1"/>
-    <cellStyle name="434bdg1h_Alternate" xfId="2"/>
-    <cellStyle name="d1o51l5i" xfId="3"/>
-    <cellStyle name="d1o51l5i_Alternate" xfId="4"/>
-    <cellStyle name="mmfdupwk" xfId="5"/>
-    <cellStyle name="mmfdupwk_Alternate" xfId="6"/>
-    <cellStyle name="wh5ct1vx" xfId="7"/>
-    <cellStyle name="wh5ct1vx_Alternate" xfId="8"/>
+    <cellStyle name="5gydkg01" xfId="1"/>
+    <cellStyle name="5gydkg01_Alternate" xfId="2"/>
+    <cellStyle name="eqgi5tja" xfId="3"/>
+    <cellStyle name="eqgi5tja_Alternate" xfId="4"/>
+    <cellStyle name="fxk1nagn" xfId="5"/>
+    <cellStyle name="fxk1nagn_Alternate" xfId="6"/>
+    <cellStyle name="llmaatoh" xfId="7"/>
+    <cellStyle name="llmaatoh_Alternate" xfId="8"/>
     <cellStyle name="LocalHeader-1" xfId="9"/>
     <cellStyle name="LocalHeader-1_Alternate" xfId="10"/>
-    <cellStyle name="oqoi2pgg" xfId="11"/>
-    <cellStyle name="oqoi2pgg_Alternate" xfId="12"/>
-    <cellStyle name="40g4cqiw" xfId="13"/>
-    <cellStyle name="40g4cqiw_Alternate" xfId="14"/>
+    <cellStyle name="sot4tavm" xfId="11"/>
+    <cellStyle name="sot4tavm_Alternate" xfId="12"/>
+    <cellStyle name="gv0t0gxi" xfId="13"/>
+    <cellStyle name="gv0t0gxi_Alternate" xfId="14"/>
     <cellStyle name="LocalHeader0" xfId="15"/>
     <cellStyle name="LocalHeader0_Alternate" xfId="16"/>
     <cellStyle name="LocalHeader1" xfId="17"/>
@@ -332,16 +467,16 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
-        <v>43983</v>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8">
-        <v>44012</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -362,7 +497,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="1" width="13.113714218139648" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="20.359804153442383" customWidth="1"/>
     <col min="3" max="3" bestFit="1" width="18.946115493774414" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
@@ -370,319 +505,319 @@
   <sheetData>
     <row r="2">
       <c r="C2" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="12">
-        <v>43983</v>
-      </c>
-      <c r="C3" s="14">
-        <v>4</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14">
-        <v>6</v>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="11">
-        <v>43984</v>
-      </c>
-      <c r="C4" s="13">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>5</v>
-      </c>
-      <c r="E4" s="13">
-        <v>3.5</v>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="12">
-        <v>43985</v>
-      </c>
-      <c r="C5" s="14">
-        <v>2</v>
+      <c r="B5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
     <row r="6">
-      <c r="B6" s="11">
-        <v>43986</v>
-      </c>
-      <c r="C6" s="13">
-        <v>6</v>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7">
-      <c r="B7" s="12">
-        <v>43987</v>
-      </c>
-      <c r="C7" s="14">
-        <v>21</v>
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8">
-      <c r="B8" s="11">
-        <v>43988</v>
-      </c>
-      <c r="C8" s="13">
-        <v>12</v>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9">
-      <c r="B9" s="12">
-        <v>43989</v>
-      </c>
-      <c r="C9" s="14">
-        <v>12</v>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10">
-      <c r="B10" s="11">
-        <v>43990</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2</v>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11">
-      <c r="B11" s="12">
-        <v>43991</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2</v>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12">
-      <c r="B12" s="11">
-        <v>43992</v>
-      </c>
-      <c r="C12" s="13">
-        <v>2</v>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13">
-      <c r="B13" s="12">
-        <v>43993</v>
-      </c>
-      <c r="C13" s="14">
-        <v>2</v>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14">
-      <c r="B14" s="11">
-        <v>43994</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2</v>
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15">
-      <c r="B15" s="12">
-        <v>43995</v>
-      </c>
-      <c r="C15" s="14">
-        <v>12</v>
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16">
-      <c r="B16" s="11">
-        <v>43996</v>
-      </c>
-      <c r="C16" s="13">
-        <v>12</v>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17">
-      <c r="B17" s="12">
-        <v>43997</v>
-      </c>
-      <c r="C17" s="14">
-        <v>12</v>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18">
-      <c r="B18" s="11">
-        <v>43998</v>
-      </c>
-      <c r="C18" s="13">
-        <v>10</v>
+      <c r="B18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19">
-      <c r="B19" s="12">
-        <v>43999</v>
-      </c>
-      <c r="C19" s="14">
-        <v>8</v>
+      <c r="B19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20">
-      <c r="B20" s="11">
-        <v>44000</v>
-      </c>
-      <c r="C20" s="13">
-        <v>9</v>
+      <c r="B20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21">
-      <c r="B21" s="12">
-        <v>44001</v>
-      </c>
-      <c r="C21" s="14">
-        <v>6</v>
+      <c r="B21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22">
-      <c r="B22" s="11">
-        <v>44002</v>
-      </c>
-      <c r="C22" s="13">
-        <v>23</v>
+      <c r="B22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23">
-      <c r="B23" s="12">
-        <v>44003</v>
-      </c>
-      <c r="C23" s="14">
-        <v>11</v>
+      <c r="B23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24">
-      <c r="B24" s="11">
-        <v>44004</v>
-      </c>
-      <c r="C24" s="13">
-        <v>22</v>
+      <c r="B24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
     </row>
     <row r="25">
-      <c r="B25" s="12">
-        <v>44005</v>
-      </c>
-      <c r="C25" s="14">
-        <v>18</v>
+      <c r="B25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26">
-      <c r="B26" s="11">
-        <v>44006</v>
-      </c>
-      <c r="C26" s="13">
-        <v>16</v>
+      <c r="B26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
     </row>
     <row r="27">
-      <c r="B27" s="12">
-        <v>44007</v>
-      </c>
-      <c r="C27" s="14">
-        <v>16</v>
+      <c r="B27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28">
-      <c r="B28" s="11">
-        <v>44008</v>
-      </c>
-      <c r="C28" s="13">
-        <v>2</v>
+      <c r="B28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
     <row r="29">
-      <c r="B29" s="12">
-        <v>44009</v>
-      </c>
-      <c r="C29" s="14">
-        <v>5</v>
+      <c r="B29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30">
-      <c r="B30" s="11">
-        <v>44010</v>
-      </c>
-      <c r="C30" s="13">
-        <v>5</v>
+      <c r="B30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31">
-      <c r="B31" s="12">
-        <v>44011</v>
-      </c>
-      <c r="C31" s="14">
-        <v>1</v>
+      <c r="B31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32">
-      <c r="B32" s="11">
-        <v>44012</v>
-      </c>
-      <c r="C32" s="13">
-        <v>2</v>
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -697,7 +832,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{02125b5e-a034-43a8-a52e-7f0e20928fe3}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{26dc8ddf-6e2c-4a48-b648-66e2035b5d66}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
           <x14:colorSeries rgb="FFFF5733"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
